--- a/xgboost_basic_features/xgboost_basic_features_submissions.xlsx
+++ b/xgboost_basic_features/xgboost_basic_features_submissions.xlsx
@@ -31,6 +31,21 @@
     <t>fileName</t>
   </si>
   <si>
+    <t>preprocessing Best easy_features_optim</t>
+  </si>
+  <si>
+    <t>preprocessing Best semantic_features_optim</t>
+  </si>
+  <si>
+    <t>preprocessing Best 20_features_all_preprocess_optim</t>
+  </si>
+  <si>
+    <t>preprocessing Best 39_features_all_preprocess_optim</t>
+  </si>
+  <si>
+    <t>preprocessing Best all_features_all_preprocess_optim</t>
+  </si>
+  <si>
     <t>xgboost_basic_features xgboos basic features no prep/post processing</t>
   </si>
   <si>
@@ -235,19 +250,19 @@
     <t>/SAPDevelop/QuoraPairs/multinomial_naivebayes_unbalanced/multinomial_naivebayes_unbalanced!logloss_proba!full!nb_common_words_div_nb_words_question1+nb_common_words_div_nb_words_question2+nb_words_question1-common_words+nb_words_question2-common_words.csv</t>
   </si>
   <si>
-    <t>/SAPDevelop/QuoraPairs/multinomial_naivebayes_unbalanced/multinomial_naivebayes_unbalanced!logloss_proba!test!nb_words_question2+nb_words_question2-common_words+nb_common_words_div_(nb_words_question1+nb_words_question2).csv</t>
-  </si>
-  <si>
-    <t>/SAPDevelop/QuoraPairs/multinomial_naivebayes_unbalanced/multinomial_naivebayes_unbalanced!logloss_proba!full!nb_words_question2+nb_words_question2-common_words+nb_common_words_div_(nb_words_question1+nb_words_question2).csv</t>
-  </si>
-  <si>
-    <t>/SAPDevelop/QuoraPairs/multinomial_naivebayes_unbalanced/multinomial_naivebayes_unbalanced!logloss_classif!test!nb_common_words+nb_words_question1-common_words+nb_words_question2-common_words+nb_common_words_div_(nb_words_question1+nb_words_question2).csv</t>
-  </si>
-  <si>
-    <t>/SAPDevelop/QuoraPairs/multinomial_naivebayes_unbalanced/multinomial_naivebayes_unbalanced!logloss_classif!full!nb_words_question2+nb_common_words+nb_words_question1-common_words+nb_words_question2-common_words.csv</t>
-  </si>
-  <si>
-    <t>/SAPDevelop/QuoraPairs/multinomial_naivebayes_unbalanced/multinomial_naivebayes_unbalanced!score!test!nb_common_words+nb_words_question1-common_words+nb_words_question2-common_words.csv</t>
+    <t>Best_easy_features_optim.zip</t>
+  </si>
+  <si>
+    <t>Best_semantic_features_optim.zip</t>
+  </si>
+  <si>
+    <t>Best_20_features_all_preprocess_optim.zip</t>
+  </si>
+  <si>
+    <t>Best_39_features_all_preprocess_optim.zip</t>
+  </si>
+  <si>
+    <t>Best_all_features_all_preprocess_optim.zip</t>
   </si>
   <si>
     <t>xgboost_basic_features.zip</t>
@@ -446,21 +461,6 @@
   </si>
   <si>
     <t>multinomial_naivebayes_unbalancedlogloss_probafullnb_common_words_div_nb_words_question1nb_common_words_div_nb_words_question2nb_words_question1-common_wordsnb_words_question2-common_words.zip</t>
-  </si>
-  <si>
-    <t>multinomial_naivebayes_unbalancedlogloss_probatestnb_words_question2nb_words_question2-common_wordsnb_common_words_div_(nb_words_question1nb_words_question2).zip</t>
-  </si>
-  <si>
-    <t>multinomial_naivebayes_unbalancedlogloss_probafullnb_words_question2nb_words_question2-common_wordsnb_common_words_div_(nb_words_question1nb_words_question2).zip</t>
-  </si>
-  <si>
-    <t>multinomial_naivebayes_unbalancedlogloss_classiftestnb_common_wordsnb_words_question1-common_wordsnb_words_question2-common_wordsnb_common_words_div_(nb_words_question1nb_words_question2).zip</t>
-  </si>
-  <si>
-    <t>multinomial_naivebayes_unbalancedlogloss_classiffullnb_words_question2nb_common_wordsnb_words_question1-common_wordsnb_words_question2-common_words.zip</t>
-  </si>
-  <si>
-    <t>multinomial_naivebayes_unbalancedscoretestnb_common_wordsnb_words_question1-common_wordsnb_words_question2-common_words.zip</t>
   </si>
 </sst>
 </file>
@@ -850,13 +850,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>44129.64335648148</v>
+        <v>44135.59961805555</v>
       </c>
       <c r="C2">
-        <v>0.3921</v>
+        <v>0.3242</v>
       </c>
       <c r="D2">
-        <v>0.396</v>
+        <v>0.3259</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -870,13 +870,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44113.32607638889</v>
+        <v>44135.59283564815</v>
       </c>
       <c r="C3">
-        <v>0.3248</v>
+        <v>0.3905</v>
       </c>
       <c r="D3">
-        <v>0.3274</v>
+        <v>0.3942</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -890,13 +890,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>44112.91763888889</v>
+        <v>44135.57069444445</v>
       </c>
       <c r="C4">
-        <v>0.3819</v>
+        <v>0.3237</v>
       </c>
       <c r="D4">
-        <v>0.3889</v>
+        <v>0.326</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -910,13 +910,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>44112.8549537037</v>
+        <v>44135.56388888889</v>
       </c>
       <c r="C5">
-        <v>0.3362</v>
+        <v>0.3152</v>
       </c>
       <c r="D5">
-        <v>0.3386</v>
+        <v>0.3173</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -930,13 +930,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>44112.59483796296</v>
+        <v>44134.60951388889</v>
       </c>
       <c r="C6">
-        <v>0.3362</v>
+        <v>0.3118</v>
       </c>
       <c r="D6">
-        <v>0.3386</v>
+        <v>0.3141</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -950,13 +950,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>44112.38706018519</v>
+        <v>44129.64335648148</v>
       </c>
       <c r="C7">
-        <v>0.3969</v>
+        <v>0.3921</v>
       </c>
       <c r="D7">
-        <v>0.3979</v>
+        <v>0.396</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -970,13 +970,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>44112.3868287037</v>
+        <v>44113.32607638889</v>
       </c>
       <c r="C8">
-        <v>0.3986</v>
+        <v>0.3248</v>
       </c>
       <c r="D8">
-        <v>0.3996</v>
+        <v>0.3274</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -990,13 +990,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>44112.3863425926</v>
+        <v>44112.91763888889</v>
       </c>
       <c r="C9">
-        <v>0.4102</v>
+        <v>0.3819</v>
       </c>
       <c r="D9">
-        <v>0.4123</v>
+        <v>0.3889</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1010,7 +1010,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>44112.36140046296</v>
+        <v>44112.8549537037</v>
       </c>
       <c r="C10">
         <v>0.3362</v>
@@ -1030,7 +1030,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>44110.77052083334</v>
+        <v>44112.59483796296</v>
       </c>
       <c r="C11">
         <v>0.3362</v>
@@ -1050,13 +1050,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>44109.93297453703</v>
+        <v>44112.38706018519</v>
       </c>
       <c r="C12">
-        <v>0.3371</v>
+        <v>0.3969</v>
       </c>
       <c r="D12">
-        <v>0.3393</v>
+        <v>0.3979</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -1067,16 +1067,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>44109.85119212963</v>
+        <v>44112.3868287037</v>
       </c>
       <c r="C13">
-        <v>0.3408</v>
+        <v>0.3986</v>
       </c>
       <c r="D13">
-        <v>0.3431</v>
+        <v>0.3996</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -1087,82 +1087,82 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>44109.83711805556</v>
+        <v>44112.3863425926</v>
       </c>
       <c r="C14">
-        <v>0.3388</v>
+        <v>0.4102</v>
       </c>
       <c r="D14">
-        <v>0.341</v>
+        <v>0.4123</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>44109.31293981482</v>
+        <v>44112.36140046296</v>
       </c>
       <c r="C15">
-        <v>0.3968</v>
+        <v>0.3362</v>
       </c>
       <c r="D15">
-        <v>0.399</v>
+        <v>0.3386</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>44108.6877662037</v>
+        <v>44110.77052083334</v>
       </c>
       <c r="C16">
-        <v>0.3877</v>
+        <v>0.3362</v>
       </c>
       <c r="D16">
-        <v>0.3892</v>
+        <v>0.3386</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>44108.66255787037</v>
+        <v>44109.93297453703</v>
       </c>
       <c r="C17">
-        <v>0.3877</v>
+        <v>0.3371</v>
       </c>
       <c r="D17">
-        <v>0.3892</v>
+        <v>0.3393</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1170,19 +1170,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>44107.58546296296</v>
+        <v>44109.85119212963</v>
       </c>
       <c r="C18">
-        <v>0.3435</v>
+        <v>0.3408</v>
       </c>
       <c r="D18">
-        <v>0.3453</v>
+        <v>0.3431</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1190,16 +1190,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>44107.47489583334</v>
+        <v>44109.83711805556</v>
       </c>
       <c r="C19">
-        <v>0.3435</v>
+        <v>0.3388</v>
       </c>
       <c r="D19">
-        <v>0.3453</v>
+        <v>0.341</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
         <v>91</v>
@@ -1210,19 +1210,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>44107.47467592593</v>
+        <v>44109.31293981482</v>
       </c>
       <c r="C20">
-        <v>0.3929</v>
+        <v>0.3968</v>
       </c>
       <c r="D20">
-        <v>0.3949</v>
+        <v>0.399</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1230,19 +1230,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>44107.43209490741</v>
+        <v>44108.6877662037</v>
       </c>
       <c r="C21">
-        <v>0.3435</v>
+        <v>0.3877</v>
       </c>
       <c r="D21">
-        <v>0.3453</v>
+        <v>0.3892</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1250,19 +1250,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>44107.43174768519</v>
+        <v>44108.66255787037</v>
       </c>
       <c r="C22">
-        <v>0.3926</v>
+        <v>0.3877</v>
       </c>
       <c r="D22">
-        <v>0.3945</v>
+        <v>0.3892</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1270,19 +1270,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>44106.99510416666</v>
+        <v>44107.58546296296</v>
       </c>
       <c r="C23">
-        <v>0.3438</v>
+        <v>0.3435</v>
       </c>
       <c r="D23">
-        <v>0.3456</v>
+        <v>0.3453</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1290,19 +1290,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>44106.99476851852</v>
+        <v>44107.47489583334</v>
       </c>
       <c r="C24">
-        <v>0.3905</v>
+        <v>0.3435</v>
       </c>
       <c r="D24">
-        <v>0.3921</v>
+        <v>0.3453</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F24" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1310,19 +1310,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>44106.55271990741</v>
+        <v>44107.47467592593</v>
       </c>
       <c r="C25">
-        <v>0.3447</v>
+        <v>0.3929</v>
       </c>
       <c r="D25">
-        <v>0.3466</v>
+        <v>0.3949</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1330,19 +1330,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>44106.55234953704</v>
+        <v>44107.43209490741</v>
       </c>
       <c r="C26">
-        <v>0.3468</v>
+        <v>0.3435</v>
       </c>
       <c r="D26">
-        <v>0.3488</v>
+        <v>0.3453</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1350,19 +1350,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>44106.55196759259</v>
+        <v>44107.43174768519</v>
       </c>
       <c r="C27">
-        <v>0.3595</v>
+        <v>0.3926</v>
       </c>
       <c r="D27">
-        <v>0.3615</v>
+        <v>0.3945</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1370,13 +1370,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>44106.5516087963</v>
+        <v>44106.99510416666</v>
       </c>
       <c r="C28">
-        <v>0.353</v>
+        <v>0.3438</v>
       </c>
       <c r="D28">
-        <v>0.3547</v>
+        <v>0.3456</v>
       </c>
       <c r="E28" t="s">
         <v>24</v>
@@ -1390,13 +1390,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>44106.55090277778</v>
+        <v>44106.99476851852</v>
       </c>
       <c r="C29">
-        <v>0.385</v>
+        <v>0.3905</v>
       </c>
       <c r="D29">
-        <v>0.3888</v>
+        <v>0.3921</v>
       </c>
       <c r="E29" t="s">
         <v>25</v>
@@ -1410,7 +1410,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>44106.54299768519</v>
+        <v>44106.55271990741</v>
       </c>
       <c r="C30">
         <v>0.3447</v>
@@ -1419,10 +1419,10 @@
         <v>0.3466</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1430,19 +1430,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>44106.54266203703</v>
+        <v>44106.55234953704</v>
       </c>
       <c r="C31">
-        <v>0.3595</v>
+        <v>0.3468</v>
       </c>
       <c r="D31">
-        <v>0.3615</v>
+        <v>0.3488</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F31" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1450,19 +1450,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>44106.54241898148</v>
+        <v>44106.55196759259</v>
       </c>
       <c r="C32">
-        <v>0.385</v>
+        <v>0.3595</v>
       </c>
       <c r="D32">
-        <v>0.3888</v>
+        <v>0.3615</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1470,19 +1470,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>44105.27482638889</v>
+        <v>44106.5516087963</v>
       </c>
       <c r="C33">
-        <v>0.3513</v>
+        <v>0.353</v>
       </c>
       <c r="D33">
-        <v>0.354</v>
+        <v>0.3547</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1490,19 +1490,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>44105.27358796296</v>
+        <v>44106.55090277778</v>
       </c>
       <c r="C34">
-        <v>0.3469</v>
+        <v>0.385</v>
       </c>
       <c r="D34">
-        <v>0.3492</v>
+        <v>0.3888</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1510,19 +1510,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>44105.27304398148</v>
+        <v>44106.54299768519</v>
       </c>
       <c r="C35">
-        <v>0.3594</v>
+        <v>0.3447</v>
       </c>
       <c r="D35">
-        <v>0.3617</v>
+        <v>0.3466</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1530,19 +1530,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>44104.32194444445</v>
+        <v>44106.54266203703</v>
       </c>
       <c r="C36">
-        <v>0.3531</v>
+        <v>0.3595</v>
       </c>
       <c r="D36">
-        <v>0.3552</v>
+        <v>0.3615</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1550,13 +1550,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>44104.32153935185</v>
+        <v>44106.54241898148</v>
       </c>
       <c r="C37">
-        <v>0.3921</v>
+        <v>0.385</v>
       </c>
       <c r="D37">
-        <v>0.396</v>
+        <v>0.3888</v>
       </c>
       <c r="E37" t="s">
         <v>30</v>
@@ -1570,19 +1570,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>44104.32070601852</v>
+        <v>44105.27482638889</v>
       </c>
       <c r="C38">
-        <v>0.3477</v>
+        <v>0.3513</v>
       </c>
       <c r="D38">
-        <v>0.3499</v>
+        <v>0.354</v>
       </c>
       <c r="E38" t="s">
         <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1590,19 +1590,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>44102.97917824074</v>
+        <v>44105.27358796296</v>
       </c>
       <c r="C39">
-        <v>0.4004</v>
+        <v>0.3469</v>
       </c>
       <c r="D39">
-        <v>0.403</v>
+        <v>0.3492</v>
       </c>
       <c r="E39" t="s">
         <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1610,19 +1610,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>44102.97888888889</v>
+        <v>44105.27304398148</v>
       </c>
       <c r="C40">
-        <v>0.3966</v>
+        <v>0.3594</v>
       </c>
       <c r="D40">
-        <v>0.3992</v>
+        <v>0.3617</v>
       </c>
       <c r="E40" t="s">
         <v>33</v>
       </c>
       <c r="F40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1630,19 +1630,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>44102.97856481482</v>
+        <v>44104.32194444445</v>
       </c>
       <c r="C41">
-        <v>0.4003</v>
+        <v>0.3531</v>
       </c>
       <c r="D41">
-        <v>0.4032</v>
+        <v>0.3552</v>
       </c>
       <c r="E41" t="s">
         <v>34</v>
       </c>
       <c r="F41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1650,53 +1650,53 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>44102.97827546296</v>
+        <v>44104.32153935185</v>
       </c>
       <c r="C42">
-        <v>0.3966</v>
+        <v>0.3921</v>
       </c>
       <c r="D42">
-        <v>0.3992</v>
+        <v>0.396</v>
       </c>
       <c r="E42" t="s">
         <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>44102.95521990741</v>
+        <v>44104.32070601852</v>
       </c>
       <c r="C43">
-        <v>0.4003</v>
+        <v>0.3477</v>
       </c>
       <c r="D43">
-        <v>0.4032</v>
+        <v>0.3499</v>
       </c>
       <c r="E43" t="s">
         <v>36</v>
       </c>
       <c r="F43" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>44102.95494212963</v>
+        <v>44102.97917824074</v>
       </c>
       <c r="C44">
-        <v>0.398</v>
+        <v>0.4004</v>
       </c>
       <c r="D44">
-        <v>0.4008</v>
+        <v>0.403</v>
       </c>
       <c r="E44" t="s">
         <v>37</v>
@@ -1707,10 +1707,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>44102.95461805556</v>
+        <v>44102.97888888889</v>
       </c>
       <c r="C45">
         <v>0.3966</v>
@@ -1727,16 +1727,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>44102.77842592593</v>
+        <v>44102.97856481482</v>
       </c>
       <c r="C46">
-        <v>0.3921</v>
+        <v>0.4003</v>
       </c>
       <c r="D46">
-        <v>0.396</v>
+        <v>0.4032</v>
       </c>
       <c r="E46" t="s">
         <v>39</v>
@@ -1747,16 +1747,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>44101.95797453704</v>
+        <v>44102.97827546296</v>
       </c>
       <c r="C47">
-        <v>0.4209</v>
+        <v>0.3966</v>
       </c>
       <c r="D47">
-        <v>0.4248</v>
+        <v>0.3992</v>
       </c>
       <c r="E47" t="s">
         <v>40</v>
@@ -1770,13 +1770,13 @@
         <v>53</v>
       </c>
       <c r="B48" s="2">
-        <v>44101.95752314815</v>
+        <v>44102.95521990741</v>
       </c>
       <c r="C48">
-        <v>0.4202</v>
+        <v>0.4003</v>
       </c>
       <c r="D48">
-        <v>0.4239</v>
+        <v>0.4032</v>
       </c>
       <c r="E48" t="s">
         <v>41</v>
@@ -1790,13 +1790,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="2">
-        <v>44101.9181712963</v>
+        <v>44102.95494212963</v>
       </c>
       <c r="C49">
-        <v>0.3921</v>
+        <v>0.398</v>
       </c>
       <c r="D49">
-        <v>0.3961</v>
+        <v>0.4008</v>
       </c>
       <c r="E49" t="s">
         <v>42</v>
@@ -1810,13 +1810,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="2">
-        <v>44101.91800925926</v>
+        <v>44102.95461805556</v>
       </c>
       <c r="C50">
-        <v>0.3921</v>
+        <v>0.3966</v>
       </c>
       <c r="D50">
-        <v>0.396</v>
+        <v>0.3992</v>
       </c>
       <c r="E50" t="s">
         <v>43</v>
@@ -1830,7 +1830,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="2">
-        <v>44101.9178587963</v>
+        <v>44102.77842592593</v>
       </c>
       <c r="C51">
         <v>0.3921</v>
@@ -1850,13 +1850,13 @@
         <v>57</v>
       </c>
       <c r="B52" s="2">
-        <v>44101.91756944444</v>
+        <v>44101.95797453704</v>
       </c>
       <c r="C52">
-        <v>0.392</v>
+        <v>0.4209</v>
       </c>
       <c r="D52">
-        <v>0.396</v>
+        <v>0.4248</v>
       </c>
       <c r="E52" t="s">
         <v>45</v>
@@ -1870,13 +1870,13 @@
         <v>58</v>
       </c>
       <c r="B53" s="2">
-        <v>44101.91730324074</v>
+        <v>44101.95752314815</v>
       </c>
       <c r="C53">
-        <v>0.3921</v>
+        <v>0.4202</v>
       </c>
       <c r="D53">
-        <v>0.396</v>
+        <v>0.4239</v>
       </c>
       <c r="E53" t="s">
         <v>46</v>
@@ -1890,13 +1890,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="2">
-        <v>44097.30527777778</v>
+        <v>44101.9181712963</v>
       </c>
       <c r="C54">
-        <v>0.6064000000000001</v>
+        <v>0.3921</v>
       </c>
       <c r="D54">
-        <v>0.6066</v>
+        <v>0.3961</v>
       </c>
       <c r="E54" t="s">
         <v>47</v>
@@ -1910,13 +1910,13 @@
         <v>60</v>
       </c>
       <c r="B55" s="2">
-        <v>44097.30504629629</v>
+        <v>44101.91800925926</v>
       </c>
       <c r="C55">
-        <v>0.6091</v>
+        <v>0.3921</v>
       </c>
       <c r="D55">
-        <v>0.6092</v>
+        <v>0.396</v>
       </c>
       <c r="E55" t="s">
         <v>48</v>
@@ -1930,13 +1930,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="2">
-        <v>44097.30483796296</v>
+        <v>44101.9178587963</v>
       </c>
       <c r="C56">
-        <v>0.6063</v>
+        <v>0.3921</v>
       </c>
       <c r="D56">
-        <v>0.6064000000000001</v>
+        <v>0.396</v>
       </c>
       <c r="E56" t="s">
         <v>49</v>
@@ -1950,13 +1950,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="2">
-        <v>44097.30444444445</v>
+        <v>44101.91756944444</v>
       </c>
       <c r="C57">
-        <v>0.6066</v>
+        <v>0.392</v>
       </c>
       <c r="D57">
-        <v>0.6068</v>
+        <v>0.396</v>
       </c>
       <c r="E57" t="s">
         <v>50</v>
@@ -1970,13 +1970,13 @@
         <v>63</v>
       </c>
       <c r="B58" s="2">
-        <v>44097.30413194445</v>
+        <v>44101.91730324074</v>
       </c>
       <c r="C58">
-        <v>0.6093</v>
+        <v>0.3921</v>
       </c>
       <c r="D58">
-        <v>0.6095</v>
+        <v>0.396</v>
       </c>
       <c r="E58" t="s">
         <v>51</v>
@@ -1990,13 +1990,13 @@
         <v>64</v>
       </c>
       <c r="B59" s="2">
-        <v>44097.30390046296</v>
+        <v>44097.30527777778</v>
       </c>
       <c r="C59">
         <v>0.6064000000000001</v>
       </c>
       <c r="D59">
-        <v>0.6065</v>
+        <v>0.6066</v>
       </c>
       <c r="E59" t="s">
         <v>52</v>
@@ -2010,13 +2010,13 @@
         <v>65</v>
       </c>
       <c r="B60" s="2">
-        <v>44096.87913194444</v>
+        <v>44097.30504629629</v>
       </c>
       <c r="C60">
-        <v>0.4203</v>
+        <v>0.6091</v>
       </c>
       <c r="D60">
-        <v>0.424</v>
+        <v>0.6092</v>
       </c>
       <c r="E60" t="s">
         <v>53</v>
@@ -2030,13 +2030,13 @@
         <v>66</v>
       </c>
       <c r="B61" s="2">
-        <v>44096.87883101852</v>
+        <v>44097.30483796296</v>
       </c>
       <c r="C61">
-        <v>0.4203</v>
+        <v>0.6063</v>
       </c>
       <c r="D61">
-        <v>0.424</v>
+        <v>0.6064000000000001</v>
       </c>
       <c r="E61" t="s">
         <v>54</v>
@@ -2050,13 +2050,13 @@
         <v>67</v>
       </c>
       <c r="B62" s="2">
-        <v>44096.83608796296</v>
+        <v>44097.30444444445</v>
       </c>
       <c r="C62">
-        <v>0.4209</v>
+        <v>0.6066</v>
       </c>
       <c r="D62">
-        <v>0.4249</v>
+        <v>0.6068</v>
       </c>
       <c r="E62" t="s">
         <v>55</v>
@@ -2070,13 +2070,13 @@
         <v>68</v>
       </c>
       <c r="B63" s="2">
-        <v>44096.83585648148</v>
+        <v>44097.30413194445</v>
       </c>
       <c r="C63">
-        <v>0.4214</v>
+        <v>0.6093</v>
       </c>
       <c r="D63">
-        <v>0.4254</v>
+        <v>0.6095</v>
       </c>
       <c r="E63" t="s">
         <v>56</v>
@@ -2090,19 +2090,19 @@
         <v>69</v>
       </c>
       <c r="B64" s="2">
-        <v>44096.83564814815</v>
+        <v>44097.30390046296</v>
       </c>
       <c r="C64">
-        <v>0.4203</v>
+        <v>0.6064000000000001</v>
       </c>
       <c r="D64">
-        <v>0.424</v>
+        <v>0.6065</v>
       </c>
       <c r="E64" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2110,19 +2110,19 @@
         <v>70</v>
       </c>
       <c r="B65" s="2">
-        <v>44096.8353125</v>
+        <v>44096.87913194444</v>
       </c>
       <c r="C65">
-        <v>0.4209</v>
+        <v>0.4203</v>
       </c>
       <c r="D65">
-        <v>0.4249</v>
+        <v>0.424</v>
       </c>
       <c r="E65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2130,19 +2130,19 @@
         <v>71</v>
       </c>
       <c r="B66" s="2">
-        <v>44096.83508101852</v>
+        <v>44096.87883101852</v>
       </c>
       <c r="C66">
-        <v>0.4214</v>
+        <v>0.4203</v>
       </c>
       <c r="D66">
-        <v>0.4254</v>
+        <v>0.424</v>
       </c>
       <c r="E66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F66" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2150,19 +2150,19 @@
         <v>72</v>
       </c>
       <c r="B67" s="2">
-        <v>44096.83487268518</v>
+        <v>44096.83608796296</v>
       </c>
       <c r="C67">
-        <v>0.4203</v>
+        <v>0.4209</v>
       </c>
       <c r="D67">
-        <v>0.424</v>
+        <v>0.4249</v>
       </c>
       <c r="E67" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F67" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2170,19 +2170,19 @@
         <v>73</v>
       </c>
       <c r="B68" s="2">
-        <v>44095.94519675926</v>
+        <v>44096.83585648148</v>
       </c>
       <c r="C68">
-        <v>0.6931</v>
+        <v>0.4214</v>
       </c>
       <c r="D68">
-        <v>0.6931</v>
+        <v>0.4254</v>
       </c>
       <c r="E68" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2190,19 +2190,19 @@
         <v>74</v>
       </c>
       <c r="B69" s="2">
-        <v>44095.94496527778</v>
+        <v>44096.83564814815</v>
       </c>
       <c r="C69">
-        <v>0.6931</v>
+        <v>0.4203</v>
       </c>
       <c r="D69">
-        <v>0.6931</v>
+        <v>0.424</v>
       </c>
       <c r="E69" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2210,19 +2210,19 @@
         <v>75</v>
       </c>
       <c r="B70" s="2">
-        <v>44095.93696759259</v>
+        <v>44096.8353125</v>
       </c>
       <c r="C70">
-        <v>0.6065</v>
+        <v>0.4209</v>
       </c>
       <c r="D70">
-        <v>0.6066</v>
+        <v>0.4249</v>
       </c>
       <c r="E70" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F70" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2230,19 +2230,19 @@
         <v>76</v>
       </c>
       <c r="B71" s="2">
-        <v>44095.93675925926</v>
+        <v>44096.83508101852</v>
       </c>
       <c r="C71">
-        <v>0.6091</v>
+        <v>0.4214</v>
       </c>
       <c r="D71">
-        <v>0.6093</v>
+        <v>0.4254</v>
       </c>
       <c r="E71" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F71" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2250,19 +2250,19 @@
         <v>77</v>
       </c>
       <c r="B72" s="2">
-        <v>44095.9365625</v>
+        <v>44096.83487268518</v>
       </c>
       <c r="C72">
-        <v>0.6063</v>
+        <v>0.4203</v>
       </c>
       <c r="D72">
-        <v>0.6064000000000001</v>
+        <v>0.424</v>
       </c>
       <c r="E72" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F72" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2270,19 +2270,19 @@
         <v>78</v>
       </c>
       <c r="B73" s="2">
-        <v>44095.93355324074</v>
+        <v>44095.94519675926</v>
       </c>
       <c r="C73">
-        <v>0.6093</v>
+        <v>0.6931</v>
       </c>
       <c r="D73">
-        <v>0.6095</v>
+        <v>0.6931</v>
       </c>
       <c r="E73" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F73" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2290,19 +2290,19 @@
         <v>79</v>
       </c>
       <c r="B74" s="2">
-        <v>44095.9333449074</v>
+        <v>44095.94496527778</v>
       </c>
       <c r="C74">
-        <v>0.6064000000000001</v>
+        <v>0.6931</v>
       </c>
       <c r="D74">
-        <v>0.6065</v>
+        <v>0.6931</v>
       </c>
       <c r="E74" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F74" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2310,19 +2310,19 @@
         <v>80</v>
       </c>
       <c r="B75" s="2">
-        <v>44094.80454861111</v>
+        <v>44095.93696759259</v>
       </c>
       <c r="C75">
-        <v>0.4213</v>
+        <v>0.6065</v>
       </c>
       <c r="D75">
-        <v>0.4253</v>
+        <v>0.6066</v>
       </c>
       <c r="E75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2330,19 +2330,19 @@
         <v>81</v>
       </c>
       <c r="B76" s="2">
-        <v>44094.80369212963</v>
+        <v>44095.93675925926</v>
       </c>
       <c r="C76">
-        <v>0.4209</v>
+        <v>0.6091</v>
       </c>
       <c r="D76">
-        <v>0.4248</v>
+        <v>0.6093</v>
       </c>
       <c r="E76" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F76" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2350,73 +2350,73 @@
         <v>82</v>
       </c>
       <c r="B77" s="2">
-        <v>44094.80347222222</v>
+        <v>44095.9365625</v>
       </c>
       <c r="C77">
-        <v>0.4202</v>
+        <v>0.6063</v>
       </c>
       <c r="D77">
-        <v>0.4239</v>
+        <v>0.6064000000000001</v>
       </c>
       <c r="E77" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F77" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B78" s="2">
-        <v>44092.6287962963</v>
+        <v>44095.93355324074</v>
       </c>
       <c r="C78">
-        <v>0.4203</v>
+        <v>0.6093</v>
       </c>
       <c r="D78">
-        <v>0.424</v>
+        <v>0.6095</v>
       </c>
       <c r="E78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F78" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B79" s="2">
-        <v>44092.62847222222</v>
+        <v>44095.9333449074</v>
       </c>
       <c r="C79">
-        <v>0.4214</v>
+        <v>0.6064000000000001</v>
       </c>
       <c r="D79">
-        <v>0.4254</v>
+        <v>0.6065</v>
       </c>
       <c r="E79" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F79" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B80" s="2">
-        <v>44092.62818287037</v>
+        <v>44094.80454861111</v>
       </c>
       <c r="C80">
-        <v>0.4203</v>
+        <v>0.4213</v>
       </c>
       <c r="D80">
-        <v>0.424</v>
+        <v>0.4253</v>
       </c>
       <c r="E80" t="s">
         <v>66</v>
@@ -2427,16 +2427,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B81" s="2">
-        <v>44084.89186342592</v>
+        <v>44094.80369212963</v>
       </c>
       <c r="C81">
-        <v>0.4931</v>
+        <v>0.4209</v>
       </c>
       <c r="D81">
-        <v>0.4946</v>
+        <v>0.4248</v>
       </c>
       <c r="E81" t="s">
         <v>67</v>
@@ -2447,16 +2447,16 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2">
-        <v>44084.89168981482</v>
+        <v>44094.80347222222</v>
       </c>
       <c r="C82">
-        <v>0.4907</v>
+        <v>0.4202</v>
       </c>
       <c r="D82">
-        <v>0.4921</v>
+        <v>0.4239</v>
       </c>
       <c r="E82" t="s">
         <v>68</v>
@@ -2470,13 +2470,13 @@
         <v>91</v>
       </c>
       <c r="B83" s="2">
-        <v>44084.89145833333</v>
+        <v>44092.6287962963</v>
       </c>
       <c r="C83">
-        <v>0.4943</v>
+        <v>0.4203</v>
       </c>
       <c r="D83">
-        <v>0.4958</v>
+        <v>0.424</v>
       </c>
       <c r="E83" t="s">
         <v>69</v>
@@ -2490,13 +2490,13 @@
         <v>92</v>
       </c>
       <c r="B84" s="2">
-        <v>44084.89103009259</v>
+        <v>44092.62847222222</v>
       </c>
       <c r="C84">
-        <v>0.4934</v>
+        <v>0.4214</v>
       </c>
       <c r="D84">
-        <v>0.4949</v>
+        <v>0.4254</v>
       </c>
       <c r="E84" t="s">
         <v>70</v>
@@ -2510,13 +2510,13 @@
         <v>93</v>
       </c>
       <c r="B85" s="2">
-        <v>44084.89076388889</v>
+        <v>44092.62818287037</v>
       </c>
       <c r="C85">
-        <v>0.4911</v>
+        <v>0.4203</v>
       </c>
       <c r="D85">
-        <v>0.4925</v>
+        <v>0.424</v>
       </c>
       <c r="E85" t="s">
         <v>71</v>
@@ -2530,13 +2530,13 @@
         <v>94</v>
       </c>
       <c r="B86" s="2">
-        <v>44084.89061342592</v>
+        <v>44084.89186342592</v>
       </c>
       <c r="C86">
+        <v>0.4931</v>
+      </c>
+      <c r="D86">
         <v>0.4946</v>
-      </c>
-      <c r="D86">
-        <v>0.4961</v>
       </c>
       <c r="E86" t="s">
         <v>72</v>
@@ -2550,13 +2550,13 @@
         <v>95</v>
       </c>
       <c r="B87" s="2">
-        <v>44084.37016203703</v>
+        <v>44084.89168981482</v>
       </c>
       <c r="C87">
-        <v>0.5033</v>
+        <v>0.4907</v>
       </c>
       <c r="D87">
-        <v>0.5044</v>
+        <v>0.4921</v>
       </c>
       <c r="E87" t="s">
         <v>73</v>
@@ -2570,13 +2570,13 @@
         <v>96</v>
       </c>
       <c r="B88" s="2">
-        <v>44084.36998842593</v>
+        <v>44084.89145833333</v>
       </c>
       <c r="C88">
-        <v>0.5037</v>
+        <v>0.4943</v>
       </c>
       <c r="D88">
-        <v>0.5048</v>
+        <v>0.4958</v>
       </c>
       <c r="E88" t="s">
         <v>74</v>
@@ -2590,13 +2590,13 @@
         <v>97</v>
       </c>
       <c r="B89" s="2">
-        <v>44084.36979166666</v>
+        <v>44084.89103009259</v>
       </c>
       <c r="C89">
-        <v>0.7987</v>
+        <v>0.4934</v>
       </c>
       <c r="D89">
-        <v>0.7992</v>
+        <v>0.4949</v>
       </c>
       <c r="E89" t="s">
         <v>75</v>
@@ -2610,13 +2610,13 @@
         <v>98</v>
       </c>
       <c r="B90" s="2">
-        <v>44084.36958333333</v>
+        <v>44084.89076388889</v>
       </c>
       <c r="C90">
-        <v>0.795</v>
+        <v>0.4911</v>
       </c>
       <c r="D90">
-        <v>0.7954</v>
+        <v>0.4925</v>
       </c>
       <c r="E90" t="s">
         <v>76</v>
@@ -2630,13 +2630,13 @@
         <v>99</v>
       </c>
       <c r="B91" s="2">
-        <v>44084.36942129629</v>
+        <v>44084.89061342592</v>
       </c>
       <c r="C91">
-        <v>0.7761</v>
+        <v>0.4946</v>
       </c>
       <c r="D91">
-        <v>0.7766</v>
+        <v>0.4961</v>
       </c>
       <c r="E91" t="s">
         <v>77</v>
